--- a/PySerum/Pipeline_Output/PC3_Batch_001/05_Final_Normalized/final_manifest.xlsx
+++ b/PySerum/Pipeline_Output/PC3_Batch_001/05_Final_Normalized/final_manifest.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX11"/>
+  <dimension ref="A1:DF11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,856 +444,1235 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Fac_AmpAttack</t>
+          <t>Mask_NoiseType</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Fac_AmpDecay</t>
+          <t>Mask_MaskAmount_Min</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Fac_AmpRelease</t>
+          <t>Mask_MaskAmount_Max</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Fac_AmpSustain</t>
+          <t>Norm_target_time_min</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Fac_Arpeggio</t>
+          <t>Norm_target_time_max</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Fac_ArpeggioSplit</t>
+          <t>Trans_NoiseType</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Fac_Chord</t>
+          <t>Trans_MaskAmount_Min</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Fac_DelayFeedback</t>
+          <t>Trans_MaskAmount_Max</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Fac_DelayTime</t>
+          <t>SimpleOscType</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Fac_DelayWet</t>
+          <t>SimpleOscVolume</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Fac_DetuneRange</t>
+          <t>OSC:A</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Fac_DetuneVoice</t>
+          <t>OSC:B</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Fac_DetuneVolume</t>
+          <t>OSC:A:Table</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Fac_DistortionFeed</t>
+          <t>OSC:A:Pos</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>Fac_DistortionGain</t>
+          <t>OSC:A:WarpAutoRange</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>Fac_DistortionWet</t>
+          <t>OSC:A:WarpAutoType</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Fac_Duration</t>
+          <t>OSC:A:Unison</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>Fac_FadeOutCurve</t>
+          <t>OSC:A:DetuneAutoRange</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>Fac_FadeOutTime</t>
+          <t>OSC:A:DetuneAutoType</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>Fac_Filter_Attack</t>
+          <t>OSC:A:Semi</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Fac_Filter_Decay</t>
+          <t>OSC:A:Oct</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>Fac_Filter_EnvAmt</t>
+          <t>OSC:A:Pan</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>Fac_Filter_Release</t>
+          <t>OSC:A:Phase</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>Fac_Filter_Sustain</t>
+          <t>Duration</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>Fac_HPF_AutoRange</t>
+          <t>NoteRange</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>Fac_HPF_AutoType</t>
+          <t>Voices</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>Fac_HPF_Cutoff</t>
+          <t>Chord</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>Fac_HPF_Enable</t>
+          <t>Strum</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
         <is>
-          <t>Fac_HPF_ResAutoRange</t>
+          <t>Arpeggio</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>Fac_HPF_ResAutoType</t>
+          <t>ArpeggioSplit</t>
         </is>
       </c>
       <c r="AI1" t="inlineStr">
         <is>
-          <t>Fac_HPF_Resonance</t>
+          <t>RouteVoiceVolume</t>
         </is>
       </c>
       <c r="AJ1" t="inlineStr">
         <is>
-          <t>Fac_LFO_P_Range</t>
+          <t>MultiVoiceVolume</t>
         </is>
       </c>
       <c r="AK1" t="inlineStr">
         <is>
-          <t>Fac_LFO_P_Shape</t>
+          <t>DetuneVoice</t>
         </is>
       </c>
       <c r="AL1" t="inlineStr">
         <is>
-          <t>Fac_LFO_P_Speed</t>
+          <t>DetuneRange</t>
         </is>
       </c>
       <c r="AM1" t="inlineStr">
         <is>
-          <t>Fac_LFO_P_Type</t>
+          <t>DetuneVolume</t>
         </is>
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>Fac_LFO_Pan_Range</t>
+          <t>LFO_P_Range</t>
         </is>
       </c>
       <c r="AO1" t="inlineStr">
         <is>
-          <t>Fac_LFO_Pan_Shape</t>
+          <t>LFO_P_Type</t>
         </is>
       </c>
       <c r="AP1" t="inlineStr">
         <is>
-          <t>Fac_LFO_Pan_Speed</t>
+          <t>LFO_P_Speed</t>
         </is>
       </c>
       <c r="AQ1" t="inlineStr">
         <is>
-          <t>Fac_LFO_Pan_Type</t>
+          <t>LFO_P_Shape</t>
         </is>
       </c>
       <c r="AR1" t="inlineStr">
         <is>
-          <t>Fac_LFO_V_Range</t>
+          <t>LFO_V_Range</t>
         </is>
       </c>
       <c r="AS1" t="inlineStr">
         <is>
-          <t>Fac_LFO_V_Shape</t>
+          <t>LFO_V_Type</t>
         </is>
       </c>
       <c r="AT1" t="inlineStr">
         <is>
-          <t>Fac_LFO_V_Speed</t>
+          <t>LFO_V_Speed</t>
         </is>
       </c>
       <c r="AU1" t="inlineStr">
         <is>
-          <t>Fac_LFO_V_Type</t>
+          <t>LFO_V_Shape</t>
         </is>
       </c>
       <c r="AV1" t="inlineStr">
         <is>
-          <t>Fac_LPF_AutoRange</t>
+          <t>LFO_Pan_Range</t>
         </is>
       </c>
       <c r="AW1" t="inlineStr">
         <is>
-          <t>Fac_LPF_AutoType</t>
+          <t>LFO_Pan_Type</t>
         </is>
       </c>
       <c r="AX1" t="inlineStr">
         <is>
-          <t>Fac_LPF_Cutoff</t>
+          <t>LFO_Pan_Speed</t>
         </is>
       </c>
       <c r="AY1" t="inlineStr">
         <is>
-          <t>Fac_LPF_Enable</t>
+          <t>LFO_Pan_Shape</t>
         </is>
       </c>
       <c r="AZ1" t="inlineStr">
         <is>
-          <t>Fac_LPF_ResAutoRange</t>
+          <t>OSC:B:Table</t>
         </is>
       </c>
       <c r="BA1" t="inlineStr">
         <is>
-          <t>Fac_LPF_ResAutoType</t>
+          <t>OSC:B:Pos</t>
         </is>
       </c>
       <c r="BB1" t="inlineStr">
         <is>
-          <t>Fac_LPF_Resonance</t>
+          <t>OSC:B:WarpAutoRange</t>
         </is>
       </c>
       <c r="BC1" t="inlineStr">
         <is>
-          <t>Fac_MasterPan</t>
+          <t>OSC:B:WarpAutoType</t>
         </is>
       </c>
       <c r="BD1" t="inlineStr">
         <is>
-          <t>Fac_MasterVolume</t>
+          <t>OSC:B:Unison</t>
         </is>
       </c>
       <c r="BE1" t="inlineStr">
         <is>
-          <t>Fac_MultiVoiceVolume</t>
+          <t>OSC:B:DetuneAutoRange</t>
         </is>
       </c>
       <c r="BF1" t="inlineStr">
         <is>
-          <t>Fac_Normalize</t>
+          <t>OSC:B:DetuneAutoType</t>
         </is>
       </c>
       <c r="BG1" t="inlineStr">
         <is>
-          <t>Fac_NoteRange</t>
+          <t>OSC:B:Semi</t>
         </is>
       </c>
       <c r="BH1" t="inlineStr">
         <is>
-          <t>Fac_OSC:A</t>
+          <t>OSC:B:Oct</t>
         </is>
       </c>
       <c r="BI1" t="inlineStr">
         <is>
-          <t>Fac_OSC:A:DetuneAutoRange</t>
+          <t>OSC:B:Pan</t>
         </is>
       </c>
       <c r="BJ1" t="inlineStr">
         <is>
-          <t>Fac_OSC:A:DetuneAutoType</t>
+          <t>OSC:B:Phase</t>
         </is>
       </c>
       <c r="BK1" t="inlineStr">
         <is>
-          <t>Fac_OSC:A:Oct</t>
+          <t>LPF_Enable</t>
         </is>
       </c>
       <c r="BL1" t="inlineStr">
         <is>
-          <t>Fac_OSC:A:Pan</t>
+          <t>LPF_Cutoff</t>
         </is>
       </c>
       <c r="BM1" t="inlineStr">
         <is>
-          <t>Fac_OSC:A:Phase</t>
+          <t>LPF_Resonance</t>
         </is>
       </c>
       <c r="BN1" t="inlineStr">
         <is>
-          <t>Fac_OSC:A:Pos</t>
+          <t>LPF_AutoRange</t>
         </is>
       </c>
       <c r="BO1" t="inlineStr">
         <is>
-          <t>Fac_OSC:A:Semi</t>
+          <t>LPF_AutoType</t>
         </is>
       </c>
       <c r="BP1" t="inlineStr">
         <is>
-          <t>Fac_OSC:A:Table</t>
+          <t>LPF_ResAutoRange</t>
         </is>
       </c>
       <c r="BQ1" t="inlineStr">
         <is>
-          <t>Fac_OSC:A:Unison</t>
+          <t>LPF_ResAutoType</t>
         </is>
       </c>
       <c r="BR1" t="inlineStr">
         <is>
-          <t>Fac_OSC:A:WarpAutoRange</t>
+          <t>HPF_Enable</t>
         </is>
       </c>
       <c r="BS1" t="inlineStr">
         <is>
-          <t>Fac_OSC:A:WarpAutoType</t>
+          <t>HPF_Cutoff</t>
         </is>
       </c>
       <c r="BT1" t="inlineStr">
         <is>
-          <t>Fac_OSC:B</t>
+          <t>HPF_Resonance</t>
         </is>
       </c>
       <c r="BU1" t="inlineStr">
         <is>
-          <t>Fac_OSC:B:DetuneAutoRange</t>
+          <t>HPF_AutoRange</t>
         </is>
       </c>
       <c r="BV1" t="inlineStr">
         <is>
-          <t>Fac_OSC:B:DetuneAutoType</t>
+          <t>HPF_AutoType</t>
         </is>
       </c>
       <c r="BW1" t="inlineStr">
         <is>
-          <t>Fac_OSC:B:Oct</t>
+          <t>HPF_ResAutoRange</t>
         </is>
       </c>
       <c r="BX1" t="inlineStr">
         <is>
-          <t>Fac_OSC:B:Pan</t>
+          <t>HPF_ResAutoType</t>
         </is>
       </c>
       <c r="BY1" t="inlineStr">
         <is>
-          <t>Fac_OSC:B:Phase</t>
+          <t>Filter_EnvAmt</t>
         </is>
       </c>
       <c r="BZ1" t="inlineStr">
         <is>
-          <t>Fac_OSC:B:Pos</t>
+          <t>Filter_Attack</t>
         </is>
       </c>
       <c r="CA1" t="inlineStr">
         <is>
-          <t>Fac_OSC:B:Semi</t>
+          <t>Filter_Decay</t>
         </is>
       </c>
       <c r="CB1" t="inlineStr">
         <is>
-          <t>Fac_OSC:B:Table</t>
+          <t>Filter_Sustain</t>
         </is>
       </c>
       <c r="CC1" t="inlineStr">
         <is>
-          <t>Fac_OSC:B:Unison</t>
+          <t>Filter_Release</t>
         </is>
       </c>
       <c r="CD1" t="inlineStr">
         <is>
-          <t>Fac_OSC:B:WarpAutoRange</t>
+          <t>DistortionGain</t>
         </is>
       </c>
       <c r="CE1" t="inlineStr">
         <is>
-          <t>Fac_OSC:B:WarpAutoType</t>
+          <t>DistortionFeed</t>
         </is>
       </c>
       <c r="CF1" t="inlineStr">
         <is>
-          <t>Fac_Pan</t>
+          <t>DistortionWet</t>
         </is>
       </c>
       <c r="CG1" t="inlineStr">
         <is>
-          <t>Fac_PhaserDepth</t>
+          <t>PhaserDepth</t>
         </is>
       </c>
       <c r="CH1" t="inlineStr">
         <is>
-          <t>Fac_PhaserSpeed</t>
+          <t>PhaserSpeed</t>
         </is>
       </c>
       <c r="CI1" t="inlineStr">
         <is>
-          <t>Fac_PhaserWet</t>
+          <t>PhaserWet</t>
         </is>
       </c>
       <c r="CJ1" t="inlineStr">
         <is>
-          <t>Fac_PitchCurve</t>
+          <t>ReverbTime</t>
         </is>
       </c>
       <c r="CK1" t="inlineStr">
         <is>
-          <t>Fac_PitchRange</t>
+          <t>ReverbSpread</t>
         </is>
       </c>
       <c r="CL1" t="inlineStr">
         <is>
-          <t>Fac_PitchType</t>
+          <t>ReverbWet</t>
         </is>
       </c>
       <c r="CM1" t="inlineStr">
         <is>
-          <t>Fac_Portament</t>
+          <t>DelayTime</t>
         </is>
       </c>
       <c r="CN1" t="inlineStr">
         <is>
-          <t>Fac_ReverbSpread</t>
+          <t>DelayFeedback</t>
         </is>
       </c>
       <c r="CO1" t="inlineStr">
         <is>
-          <t>Fac_ReverbTime</t>
+          <t>DelayWet</t>
         </is>
       </c>
       <c r="CP1" t="inlineStr">
         <is>
-          <t>Fac_ReverbWet</t>
+          <t>SpreadRange</t>
         </is>
       </c>
       <c r="CQ1" t="inlineStr">
         <is>
-          <t>Fac_RouteVoiceVolume</t>
+          <t>SpreadDensity</t>
         </is>
       </c>
       <c r="CR1" t="inlineStr">
         <is>
-          <t>Fac_SimpleOscType</t>
+          <t>SpreadWet</t>
         </is>
       </c>
       <c r="CS1" t="inlineStr">
         <is>
-          <t>Fac_SimpleOscVolume</t>
+          <t>AmpAttack</t>
         </is>
       </c>
       <c r="CT1" t="inlineStr">
         <is>
-          <t>Fac_SpreadDensity</t>
+          <t>AmpDecay</t>
         </is>
       </c>
       <c r="CU1" t="inlineStr">
         <is>
-          <t>Fac_SpreadRange</t>
+          <t>AmpSustain</t>
         </is>
       </c>
       <c r="CV1" t="inlineStr">
         <is>
-          <t>Fac_SpreadWet</t>
+          <t>AmpRelease</t>
         </is>
       </c>
       <c r="CW1" t="inlineStr">
         <is>
-          <t>Fac_Strum</t>
+          <t>Portament</t>
         </is>
       </c>
       <c r="CX1" t="inlineStr">
         <is>
-          <t>Fac_Voices</t>
+          <t>PitchRange</t>
+        </is>
+      </c>
+      <c r="CY1" t="inlineStr">
+        <is>
+          <t>PitchType</t>
+        </is>
+      </c>
+      <c r="CZ1" t="inlineStr">
+        <is>
+          <t>PitchCurve</t>
+        </is>
+      </c>
+      <c r="DA1" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="DB1" t="inlineStr">
+        <is>
+          <t>MasterPan</t>
+        </is>
+      </c>
+      <c r="DC1" t="inlineStr">
+        <is>
+          <t>MasterVolume</t>
+        </is>
+      </c>
+      <c r="DD1" t="inlineStr">
+        <is>
+          <t>Normalize</t>
+        </is>
+      </c>
+      <c r="DE1" t="inlineStr">
+        <is>
+          <t>FadeOutTime</t>
+        </is>
+      </c>
+      <c r="DF1" t="inlineStr">
+        <is>
+          <t>FadeOutCurve</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gen_0001_Masker.wav</t>
+          <t>Gen_0001_L1.wav</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Masker (Fallback)</t>
+          <t>[Masker]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Quartz_An-2_Cluster_0251523_1.wav</t>
+          <t>Quartz_Cn3_Maj7_0330492.wav</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>268.83</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1300.33</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>3666.18</v>
+        <v>0.4</v>
       </c>
       <c r="H2" t="n">
-        <v>25.13</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2" t="n">
         <v>4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="O2" t="n">
-        <v>29.36</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="U2" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="X2" t="n">
-        <v>773.4400000000001</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1247.07</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>3540.53</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>15160.61</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>7883.88</v>
-      </c>
-      <c r="AF2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>774.04</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>54.67</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>11893.31</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>37.31</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>7164.37</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>41.01</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>26527.34</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>15842.5</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>16113.04</v>
-      </c>
-      <c r="AY2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="BF2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>4</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>-0.93</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>-10.91</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>-0.87</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>-1.15</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>-4.41</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>69.01000000000001</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>63.75</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>-323.84</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>459.03</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>413.69</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>18.57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gen_0002_Masker.wav</t>
+          <t>Gen_0002_L1.wav</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Masker (Fallback)</t>
+          <t>[Transformer]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Quartz_As0_Cluster_0258307.wav</t>
-        </is>
+          <t>Quartz_Cn1_Dim_0325113_2.wav</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W3" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-1.63</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>36.06</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>30.97</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>416.49</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>6630.8</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>19708.78</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>90.53</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>16633.83</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>33.68</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>57.09</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>9919.42</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>88.84999999999999</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>-6</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="BK3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>2905.9</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>-5727.52</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BR3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>14586.66</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>16775.07</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>1376.03</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>1088.06</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>143.85</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>430.57</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>1996.51</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>50.53</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>4446.43</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>42.16</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>-2331.08</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>98.03</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>111.75</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>74.64</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="DD3" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gen_0003_Masker.wav</t>
+          <t>Gen_0003_L1.wav</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Masker</t>
+          <t>[Transformer]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Quartz_Bn-1_Cluster_0258378.wav</t>
-        </is>
+          <t>Quartz_An-2_Cluster_0251523_2.wav</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T4" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-10.91</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>413.69</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>29.36</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>774.04</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>11893.31</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>54.67</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>41.01</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>26527.34</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>7164.37</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>37.31</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>-4.41</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BK4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>16113.04</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>15842.5</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="BR4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>7883.88</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>15160.61</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>773.4400000000001</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1247.07</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>3540.53</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>268.83</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>1300.33</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>3666.18</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>459.03</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>-323.84</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>63.75</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>69.01000000000001</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="DD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gen_0004_Through.wav</t>
+          <t>Gen_0004_L1.wav</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1303,8 +1682,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Quartz_As0_Cluster_0258307.wav</t>
-        </is>
+          <t>Quartz_Gn2_Maj7_0320042.wav</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1313,58 +1698,397 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gen_0005_Masker.wav</t>
+          <t>Gen_0005_L1.wav</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Masker</t>
+          <t>[Masker]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Quartz_As0_Cluster_0258307.wav</t>
-        </is>
+          <t>Quartz_Dn6_Min_0333145.wav</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gen_0006_L1.wav</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[Transformer]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Quartz_An6_Power_0327588_1.wav</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I7" t="n">
         <v>4</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Gen_0006_Masker.wav</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Masker (Fallback)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Quartz_As0_Cluster_0258307.wav</t>
-        </is>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>105.09</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>49.51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1820.16</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>15797.97</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>31.62</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>81.87</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>15809.74</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>35.69</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>12104.16</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>39.69</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>-4.73</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="BK7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>14523.67</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>-16066.33</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="BR7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>2294.03</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>3729.64</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>1924.09</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>1025.42</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>3431.02</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>566.26</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>1580.53</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>3836.81</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>264.74</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>-1975.21</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>121.24</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>97.56</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="DD7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gen_0007_L1.wav</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[Transformer]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Quartz_Gn4_Min_0307474.wav</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I8" t="n">
         <v>4</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Gen_0007_Masker.wav</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Masker</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Quartz_Bn-1_Cluster_0258378.wav</t>
-        </is>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
@@ -1373,352 +2097,691 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gen_0008_Masker.wav</t>
+          <t>Gen_0008_L1.wav</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Masker</t>
+          <t>[Masker]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Quartz_Bn-1_Cluster_0258378.wav</t>
-        </is>
+          <t>Quartz_Bn-1_Cluster_0258378_2.wav</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="T9" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-6.61</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>116.57</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>37.04</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1644.07</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>16623.85</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>82.31999999999999</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>13760.96</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>33.68</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>13585.79</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>47.64</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="BK9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>14572.44</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>7347.01</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="BR9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>8046.57</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>18193.01</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>714.55</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>709.84</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>4719.32</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>721.3200000000001</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>86.37</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>2620.72</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>366.93</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>107.24</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>113.36</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>50.03</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>20.72</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="DD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gen_0009_L1.wav</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[Transformer]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Quartz_As4_Dom7_0301594_1.wav</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I10" t="n">
         <v>4</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Gen_0009_Masker.wav</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Masker (Fallback)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Quartz_An-2_Cluster_0251523.wav</t>
-        </is>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="T10" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-9.6</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>82.93000000000001</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>26.89</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>492.92</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>26541.1</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>90.08</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>63.23</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>25517.9</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>36.66</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>7309.93</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BK10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>4933.27</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>12922.54</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="BR10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>7397.97</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>-10788.83</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>906.1</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>36.02</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>870.79</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>1544.92</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>4638.16</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>402.06</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>-1907.76</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>114.62</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="DD10" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gen_0010_L1.wav</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[Masker]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Quartz_Cn-1_Space_0306029.wav</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I11" t="n">
         <v>4</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Gen_0010_Masker.wav</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Masker (Fallback)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Quartz_An-2_Cluster_0251523_1.wav</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>268.83</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1300.33</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3666.18</v>
-      </c>
-      <c r="H11" t="n">
-        <v>25.13</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="O11" t="n">
-        <v>29.36</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="U11" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="X11" t="n">
-        <v>773.4400000000001</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1247.07</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>3540.53</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>15160.61</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>7883.88</v>
-      </c>
-      <c r="AF11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>774.04</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>54.67</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>11893.31</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>37.31</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>7164.37</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>41.01</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>26527.34</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>15842.5</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>16113.04</v>
-      </c>
-      <c r="AY11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="BF11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>4</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>-0.93</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>-10.91</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>-0.87</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>-1.15</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>-4.41</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="CD11" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="CE11" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>69.01000000000001</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="CH11" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>63.75</v>
-      </c>
-      <c r="CK11" t="n">
-        <v>-323.84</v>
-      </c>
-      <c r="CL11" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>459.03</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="CQ11" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR11" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="CS11" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="CT11" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="CU11" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="CV11" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CW11" t="n">
-        <v>413.69</v>
-      </c>
-      <c r="CX11" t="n">
-        <v>18.57</v>
       </c>
     </row>
   </sheetData>
